--- a/data/trans_camb/P50_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P50_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,59</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>19,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-4,85</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-4,89</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-5,67</t>
+          <t>17,81</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,1</t>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-4,91</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-4,92</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>18,36</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 3,75</t>
+          <t>-8,85; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,59; -0,71</t>
+          <t>-11,31; 0,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 0,13</t>
+          <t>-11,79; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 19,48</t>
+          <t>-11,23; 0,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -1,22</t>
+          <t>12,32; 24,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 0,47</t>
+          <t>-5,17; 5,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; -0,23</t>
+          <t>-11,43; -1,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 15,77</t>
+          <t>-9,61; -0,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; -0,76</t>
+          <t>-9,66; -0,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-8,65; -1,46</t>
+          <t>-6,99; 3,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; -2,16</t>
+          <t>12,35; 22,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 15,81</t>
+          <t>-0,18; 9,79</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; -1,12</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-8,65; -1,51</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; -1,89</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 0,44</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 22,35</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 6,41</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,5%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>-15,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,79%</t>
+          <t>-17,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>-13,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>65,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,07%</t>
+          <t>-18,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>-12,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-13,09%</t>
+          <t>-13,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-14,02%</t>
+          <t>-6,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-16,25%</t>
+          <t>53,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-14,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-14,12%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-15,5%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-9,76%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>58,36%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,08%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 11,72</t>
+          <t>-24,79; 11,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,98; -2,26</t>
+          <t>-31,0; -0,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 0,32</t>
+          <t>-32,02; 4,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,05; 64,51</t>
+          <t>-31,01; 2,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,27; -3,57</t>
+          <t>37,53; 100,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 1,82</t>
+          <t>-10,48; 13,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,96; -0,87</t>
+          <t>-30,34; -5,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,31; 47,69</t>
+          <t>-24,78; -0,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,61; -2,21</t>
+          <t>-25,42; -0,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -4,6</t>
+          <t>-18,76; 8,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-25,1; -6,38</t>
+          <t>33,74; 75,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,84; 48,15</t>
+          <t>-0,44; 22,21</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-23,96; -3,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-23,53; -4,5</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-24,64; -5,36</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-21,06; 1,33</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>42,19; 76,78</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 14,3</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,58</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,46</t>
+          <t>10,55</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,0</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-3,89</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 3,82</t>
+          <t>-9,81; 2,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 4,8</t>
+          <t>-8,64; 4,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 5,32</t>
+          <t>-8,38; 4,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 11,18</t>
+          <t>-8,55; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 0,53</t>
+          <t>1,7; 19,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 3,2</t>
+          <t>-2,56; 16,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,91; -0,31</t>
+          <t>-11,22; 1,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 12,85</t>
+          <t>-8,41; 2,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 0,15</t>
+          <t>-11,43; -0,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 1,8</t>
+          <t>-7,37; 5,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 0,94</t>
+          <t>-3,93; 13,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 8,89</t>
+          <t>-11,77; 7,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-8,8; 0,32</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 1,81</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; 0,88</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 3,32</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 13,52</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 9,15</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-10,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,56%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,28%</t>
+          <t>-5,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>-3,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,91%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,29%</t>
+          <t>-13,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,31%</t>
+          <t>-14,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>-2,95%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-10,64%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>-3,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-12,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-7,11%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-10,36%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-3,19%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>21,69%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,86; 13,26</t>
+          <t>-27,24; 10,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 15,1</t>
+          <t>-23,48; 13,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 16,83</t>
+          <t>-22,2; 15,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 35,57</t>
+          <t>-23,38; 18,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,54; 1,71</t>
+          <t>4,4; 64,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 8,8</t>
+          <t>-6,38; 51,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,06; -1,25</t>
+          <t>-26,54; 4,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 35,13</t>
+          <t>-20,05; 7,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 0,93</t>
+          <t>-27,96; -1,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 4,87</t>
+          <t>-17,73; 15,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 2,84</t>
+          <t>-10,36; 37,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 25,81</t>
+          <t>-24,06; 20,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,02; 0,93</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; 5,19</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-21,07; 2,87</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-15,24; 9,3</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 40,73</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-10,15; 24,85</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-9,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,04</t>
+          <t>-5,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-3,56</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-13,99</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,63</t>
+          <t>-12,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-4,83</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-8,88</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-7,85</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-11,65</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-3,17</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-7,29</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-10,72</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-7,05</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-5,62</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,9; 2,7</t>
+          <t>-22,46; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 9,83</t>
+          <t>-15,87; 10,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 8,95</t>
+          <t>-19,49; 7,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-18,65; 9,52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-25,64; -2,65</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 6,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 2,42</t>
+          <t>-22,71; -1,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-15,89; 6,27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-19,97; 0,72</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; 5,02</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-20,11; -2,93</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-10,76; 6,23</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-16,32; 0,36</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; -2,77</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-12,16; 4,48</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-15,6; 1,85</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-15,19; 3,42</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-27,77%</t>
+          <t>-27,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>-5,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-17,9%</t>
+          <t>-15,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-10,55%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-32,38%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-19,98%</t>
+          <t>-27,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-11,17%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-20,56%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-18,17%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-30,34%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-8,26%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-19,0%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-27,92%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-8,55%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-18,36%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-14,65%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,26; 10,09</t>
+          <t>-54,83; 15,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 36,68</t>
+          <t>-38,68; 39,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 34,68</t>
+          <t>-47,32; 29,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-46,16; 35,29</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-53,31; -6,86</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 16,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,21; 6,14</t>
+          <t>-48,26; -4,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-33,05; 17,08</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-39,75; 2,67</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-39,87; 13,2</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-46,39; -7,87</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-25,25; 18,71</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-38,51; 0,82</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-44,8; -7,62</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-28,31; 13,59</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-36,99; 5,42</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-35,17; 10,21</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>16,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>-3,88</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>-5,72</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-3,68</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-5,17</t>
+          <t>14,0</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>3,49</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-5,4</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-4,98</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-2,78</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>15,1</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 0,78</t>
+          <t>-8,15; -0,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 0,19</t>
+          <t>-7,99; 0,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -0,1</t>
+          <t>-8,41; 0,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,37</t>
+          <t>-7,14; 1,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -2,99</t>
+          <t>11,71; 20,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; -0,04</t>
+          <t>-2,57; 7,61</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,68; -2,44</t>
+          <t>-10,0; -3,06</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,69; 12,05</t>
+          <t>-7,36; -0,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,14; -2,48</t>
+          <t>-9,17; -2,06</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -1,02</t>
+          <t>-6,37; 1,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-7,92; -2,34</t>
+          <t>9,95; 18,03</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,47</t>
+          <t>-0,81; 7,56</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-8,27; -2,72</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,55; -1,17</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; -2,05</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 0,15</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>11,46; 18,41</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 6,08</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>-12,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,84%</t>
+          <t>-11,28%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,3%</t>
+          <t>-12,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,78%</t>
+          <t>53,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,73%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,36%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>-10,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>-15,05%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-14,39%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-15,04%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-10,68%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-13,85%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-7,73%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>45,54%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 2,68</t>
+          <t>-23,29; -0,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 0,61</t>
+          <t>-22,41; 0,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,86; -0,27</t>
+          <t>-23,58; 1,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,47; 47,43</t>
+          <t>-20,07; 5,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,52; -7,95</t>
+          <t>35,32; 74,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,56; -0,11</t>
+          <t>-5,47; 18,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,29; -6,68</t>
+          <t>-25,12; -8,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,39; 33,05</t>
+          <t>-18,64; -1,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,73; -6,95</t>
+          <t>-23,17; -5,73</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-17,49; -2,98</t>
+          <t>-16,24; 4,84</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-21,44; -6,8</t>
+          <t>26,28; 54,59</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,79; 36,44</t>
+          <t>-2,13; 17,17</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-22,11; -7,91</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-17,53; -3,48</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; -5,81</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-15,35; 0,21</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>32,84; 58,69</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 13,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
